--- a/画面/画面レイアウト_PC.xlsx
+++ b/画面/画面レイアウト_PC.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sanyo_work\projects\Kinchan\git\KinchanDoc\画面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0815466-7E45-4419-9E21-0B30B03F7A8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4570A1F-1385-4A38-BA9B-DA7955649B07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー" sheetId="1" r:id="rId1"/>
-    <sheet name="週報トップ画面" sheetId="14" r:id="rId2"/>
-    <sheet name="週報画面" sheetId="3" r:id="rId3"/>
-    <sheet name="週報確認画面" sheetId="8" r:id="rId4"/>
-    <sheet name="週報入力画面" sheetId="7" r:id="rId5"/>
-    <sheet name="申請ルート一覧画面" sheetId="10" r:id="rId6"/>
-    <sheet name="申請ルート作成画面" sheetId="11" r:id="rId7"/>
-    <sheet name="申請ルート登録時確認画面" sheetId="12" r:id="rId8"/>
-    <sheet name="申請ルート申請中確認画面" sheetId="13" r:id="rId9"/>
+    <sheet name="メニュー_発展案" sheetId="15" r:id="rId2"/>
+    <sheet name="週報トップ画面" sheetId="14" r:id="rId3"/>
+    <sheet name="週報画面" sheetId="3" r:id="rId4"/>
+    <sheet name="週報確認画面" sheetId="8" r:id="rId5"/>
+    <sheet name="週報入力画面" sheetId="7" r:id="rId6"/>
+    <sheet name="申請ルート一覧画面" sheetId="10" r:id="rId7"/>
+    <sheet name="申請ルート作成画面" sheetId="11" r:id="rId8"/>
+    <sheet name="申請ルート登録時確認画面" sheetId="12" r:id="rId9"/>
+    <sheet name="申請ルート申請中確認画面" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
   <si>
     <t>各種報告</t>
     <rPh sb="0" eb="2">
@@ -1145,6 +1146,10 @@
     <rPh sb="4" eb="5">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1598,6 +1603,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1655,9 +1663,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1688,15 +1693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>5520</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>10215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:colOff>662608</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1711,8 +1716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1841500" y="781050"/>
-          <a:ext cx="5670550" cy="3302000"/>
+          <a:off x="1728303" y="667302"/>
+          <a:ext cx="5957957" cy="4959350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1759,13 +1764,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
@@ -1923,13 +1928,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
@@ -2007,13 +2012,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2160,7 +2165,867 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>237837</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BAC4BF-19DC-4F31-99DB-F447B2D97BA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="1038225"/>
+          <a:ext cx="4524087" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EE33FA-3388-45E3-B6FC-02BD265933B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1571625" y="1228725"/>
+          <a:ext cx="0" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3423537-E3DA-4FDF-BEEB-D31B8D73066C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2962275" y="1238250"/>
+          <a:ext cx="0" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>430695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>226391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1755947-3C39-4859-BA28-DA0579052C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1728303" y="657086"/>
+          <a:ext cx="3970132" cy="4980609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050">
+            <a:alpha val="18000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>作業枠</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB968BAD-E147-49C6-B57D-95D569CAFCCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="539750"/>
+          <a:ext cx="2120900" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 37500"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリックでびよんってなる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557972</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>204856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C437578D-61A3-45B6-BC5D-0E1E8C62FAE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2280755" y="2596873"/>
+          <a:ext cx="1982304" cy="302592"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17149"/>
+            <a:gd name="adj2" fmla="val 78954"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>左のメニューで切り替わる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A103AD8E-D51F-4A76-BB62-BD4FCC168763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="4044950"/>
+          <a:ext cx="1384300" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="13000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示条件あり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E5D17E-5CE3-4292-B03A-CF458E10F31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="234950" y="1549400"/>
+          <a:ext cx="1803400" cy="501650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="13000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示条件あり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>430695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>226391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57E4529-40E2-421D-9E28-71A6CE6B05CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5698435" y="657086"/>
+          <a:ext cx="2109304" cy="4980609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0">
+            <a:alpha val="18000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報枠</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>474041</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>537541</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>46935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 角を丸めた四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE114E36-F639-4212-B7D5-A0E2B0F5D547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7497693" y="795959"/>
+          <a:ext cx="1510196" cy="360846"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -45095"/>
+            <a:gd name="adj2" fmla="val -110416"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>システムメニュー枠</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60739</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60739</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9AB697-5FC1-4F00-B925-7FC0A4396C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5759174" y="750956"/>
+          <a:ext cx="0" cy="4792870"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480668</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 角を丸めた四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F332F895-7528-4FD2-BFC2-566197B3F40A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6963190" y="1965739"/>
+          <a:ext cx="1810854" cy="668683"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -35219"/>
+            <a:gd name="adj2" fmla="val 93552"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>作業枠でクリックされた明細系情報を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2216,7 +3081,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2449,7 +3314,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2967,7 +3832,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4554,7 +5419,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4610,7 +5475,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5132,7 +5997,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5261,176 +6126,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CB2402-6E8C-4E4D-8B63-B6F7928EDE31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2962275" y="1238250"/>
-          <a:ext cx="0" cy="1866900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>237837</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線コネクタ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BAC4BF-19DC-4F31-99DB-F447B2D97BA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="238125" y="1038225"/>
-          <a:ext cx="4524087" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EE33FA-3388-45E3-B6FC-02BD265933B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1571625" y="1228725"/>
-          <a:ext cx="0" cy="1866900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3423537-E3DA-4FDF-BEEB-D31B8D73066C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5770,7 +6465,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -5778,13 +6473,13 @@
   <cols>
     <col min="1" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="1.58203125" customWidth="1"/>
+    <col min="13" max="13" width="1.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -5800,127 +6495,130 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
@@ -5936,6 +6634,11 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5945,7 +6648,349 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8327964-B571-4BE0-93C3-C9789E4AF350}">
+  <sheetPr codeName="Sheet8">
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="C2:S15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="3.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="3:19" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+    </row>
+    <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="I6" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="O6" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+    </row>
+    <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="I8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="O8" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+    </row>
+    <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="I9" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="O9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+    </row>
+    <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O11" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+    </row>
+    <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O12" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+    </row>
+    <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="C15:S15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244B2876-583F-473D-AA46-538CC657C8FD}">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="2" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="1.58203125" customWidth="1"/>
+    <col min="14" max="14" width="1.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F39F733-21DC-49BD-B5AB-CA43CC1CACAE}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -6034,7 +7079,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="51" t="s">
         <v>107</v>
       </c>
       <c r="K6" s="45"/>
@@ -6302,14 +7347,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:T30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6372,21 +7419,21 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
       <c r="T5" s="13"/>
     </row>
     <row r="6" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6397,21 +7444,21 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
       <c r="T6" s="18"/>
     </row>
     <row r="7" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6422,21 +7469,21 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
       <c r="T7" s="13"/>
     </row>
     <row r="8" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6447,21 +7494,21 @@
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
       <c r="T8" s="18"/>
     </row>
     <row r="9" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6471,19 +7518,19 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
       <c r="T9" s="13"/>
     </row>
     <row r="10" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6494,19 +7541,19 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
       <c r="T10" s="9"/>
     </row>
     <row r="11" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6517,19 +7564,19 @@
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
       <c r="T11" s="10"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
@@ -6541,191 +7588,191 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
       <c r="T17" s="25"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
       <c r="T20" s="25"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6748,7 +7795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52B8D78-7FFB-468F-82CD-E01C0D6C9356}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -6965,46 +8012,46 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7021,7 +8068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E21A397-03E9-46DA-AB77-CFEF691EA132}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -7181,46 +8228,46 @@
       </c>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7234,7 +8281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5BADD-AA55-4926-9C72-5AF52341BDA1}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -7437,25 +8484,25 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7468,7 +8515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B2E109-787C-4A1B-B797-9E21CC10A334}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -7590,46 +8637,46 @@
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7643,7 +8690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCA5CE8-C3AB-4AEA-836A-CB4EE9317532}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -7686,21 +8733,21 @@
       <c r="R3" s="23"/>
     </row>
     <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="I6" s="64" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="I6" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="O6" s="64" t="s">
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="O6" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
     </row>
     <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="42"/>
@@ -7708,94 +8755,94 @@
       <c r="K7" s="42"/>
     </row>
     <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="I8" s="65" t="s">
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="I8" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="O8" s="65" t="s">
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="O8" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
     </row>
     <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="I9" s="62" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="I9" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="O9" s="62" t="s">
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="O9" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
     </row>
     <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O11" s="66" t="s">
+      <c r="O11" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
     </row>
     <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
     </row>
     <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
     </row>
     <row r="17" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7818,159 +8865,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8327964-B571-4BE0-93C3-C9789E4AF350}">
-  <sheetPr codeName="Sheet8">
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="C2:S15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="3" max="3" width="3.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="3:19" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-    </row>
-    <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="I6" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="O6" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-    </row>
-    <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="I8" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="O8" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-    </row>
-    <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="I9" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="O9" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-    </row>
-    <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O11" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-    </row>
-    <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O12" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-    </row>
-    <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C15:S15"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="O8:Q8"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/画面/画面レイアウト_PC.xlsx
+++ b/画面/画面レイアウト_PC.xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sanyo_work\projects\Kinchan\git\KinchanDoc\画面\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4570A1F-1385-4A38-BA9B-DA7955649B07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30015" yWindow="1725" windowWidth="16290" windowHeight="13005" tabRatio="797"/>
   </bookViews>
   <sheets>
-    <sheet name="メニュー" sheetId="1" r:id="rId1"/>
-    <sheet name="メニュー_発展案" sheetId="15" r:id="rId2"/>
-    <sheet name="週報トップ画面" sheetId="14" r:id="rId3"/>
-    <sheet name="週報画面" sheetId="3" r:id="rId4"/>
-    <sheet name="週報確認画面" sheetId="8" r:id="rId5"/>
-    <sheet name="週報入力画面" sheetId="7" r:id="rId6"/>
-    <sheet name="申請ルート一覧画面" sheetId="10" r:id="rId7"/>
-    <sheet name="申請ルート作成画面" sheetId="11" r:id="rId8"/>
-    <sheet name="申請ルート登録時確認画面" sheetId="12" r:id="rId9"/>
-    <sheet name="申請ルート申請中確認画面" sheetId="13" r:id="rId10"/>
+    <sheet name="画面一覧" sheetId="17" r:id="rId1"/>
+    <sheet name="メニュー" sheetId="1" r:id="rId2"/>
+    <sheet name="メニュー_発展案" sheetId="15" r:id="rId3"/>
+    <sheet name="週報一覧画面" sheetId="14" r:id="rId4"/>
+    <sheet name="週報画面" sheetId="3" r:id="rId5"/>
+    <sheet name="日録確認画面" sheetId="8" r:id="rId6"/>
+    <sheet name="日録入力画面" sheetId="7" r:id="rId7"/>
+    <sheet name="申請ルート一覧画面" sheetId="10" r:id="rId8"/>
+    <sheet name="申請ルート作成画面" sheetId="11" r:id="rId9"/>
+    <sheet name="申請ルート確認画面(登録時)" sheetId="12" r:id="rId10"/>
+    <sheet name="申請ルート申請中確認画面" sheetId="13" r:id="rId11"/>
+    <sheet name="コメント入力画面" sheetId="16" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="147">
   <si>
     <t>各種報告</t>
     <rPh sb="0" eb="2">
@@ -1011,13 +1007,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2019年</t>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>5/6～5/12</t>
   </si>
   <si>
@@ -1150,14 +1139,325 @@
   </si>
   <si>
     <t>グループ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>承認状況：作業中</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サギョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>週報系</t>
+    <rPh sb="0" eb="2">
+      <t>シュウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>週報画面</t>
+    <rPh sb="0" eb="2">
+      <t>シュウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント編集画面</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>申請ルート系</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>過去分全ての週報を一覧表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ルートを表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>長文テキストの入力を行う。スマホからも入力しやすいように。</t>
+    <rPh sb="0" eb="2">
+      <t>チョウブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機能・要件</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウケン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＞</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>＜</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1-20行 / 128行</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2019</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインユーザーに関連する申請ルートを一覧表示する。</t>
+    <rPh sb="9" eb="11">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインユーザーがルート作成を行う。</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>週報を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日録入力画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニチロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日録確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ニチロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日録入力を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ニチロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>週報一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>シュウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>申請ルート一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>申請ルート編集画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>申請ルート確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>次週予定</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日録を表示する。見切れ等ないよう確認できること。PDF出力・表示ができること。</t>
+    <rPh sb="0" eb="2">
+      <t>ニチロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>印刷プレビュー</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,8 +1670,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1426,6 +1753,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1459,7 +1798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,28 +1921,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1620,9 +1998,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1708,7 +2083,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C14FC6E-1AAE-4AD5-9B21-59DC327C97C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C14FC6E-1AAE-4AD5-9B21-59DC327C97C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +2155,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9959ED3C-E065-4A11-84BC-D6A05AADE8CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9959ED3C-E065-4A11-84BC-D6A05AADE8CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +2237,7 @@
         <xdr:cNvPr id="6" name="吹き出し: 角を丸めた四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FBEBD3-206F-4630-9D48-12AEA79072DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FBEBD3-206F-4630-9D48-12AEA79072DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +2319,7 @@
         <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA4415E-BDA4-4D09-9BF2-7818E0D40817}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA4415E-BDA4-4D09-9BF2-7818E0D40817}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2401,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2820E4-422A-479B-817A-EEC5F08EF787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2820E4-422A-479B-817A-EEC5F08EF787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2478,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4D4EC7-404E-415E-BE84-89F62837F405}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4D4EC7-404E-415E-BE84-89F62837F405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2560,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BAC4BF-19DC-4F31-99DB-F447B2D97BA2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BAC4BF-19DC-4F31-99DB-F447B2D97BA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2611,7 @@
         <xdr:cNvPr id="3" name="直線コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EE33FA-3388-45E3-B6FC-02BD265933B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EE33FA-3388-45E3-B6FC-02BD265933B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2668,7 @@
         <xdr:cNvPr id="4" name="直線コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3423537-E3DA-4FDF-BEEB-D31B8D73066C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3423537-E3DA-4FDF-BEEB-D31B8D73066C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,6 +2705,285 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A506C86-9934-4B71-A068-1448D304FAE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="1752600"/>
+          <a:ext cx="2400300" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7651"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="10000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報枠実装の場合は縦表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>237837</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC28B23-880D-45F1-9793-821B0F0D9BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="1038225"/>
+          <a:ext cx="4524087" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9018AD54-DF17-4A7C-8EFC-3918B564D1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504825" y="1209675"/>
+          <a:ext cx="3962400" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4825"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>118222</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33487D31-8503-4352-8CFF-D087875B13E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="2305050"/>
+          <a:ext cx="2185147" cy="549088"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -48013"/>
+            <a:gd name="adj2" fmla="val 74745"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>呼び元により表示切替</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2355,7 +3009,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1755947-3C39-4859-BA28-DA0579052C2A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1755947-3C39-4859-BA28-DA0579052C2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +3081,7 @@
         <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB968BAD-E147-49C6-B57D-95D569CAFCCB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB968BAD-E147-49C6-B57D-95D569CAFCCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +3163,7 @@
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C437578D-61A3-45B6-BC5D-0E1E8C62FAE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C437578D-61A3-45B6-BC5D-0E1E8C62FAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +3245,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A103AD8E-D51F-4A76-BB62-BD4FCC168763}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A103AD8E-D51F-4A76-BB62-BD4FCC168763}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +3322,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E5D17E-5CE3-4292-B03A-CF458E10F31B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E5D17E-5CE3-4292-B03A-CF458E10F31B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2745,7 +3399,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57E4529-40E2-421D-9E28-71A6CE6B05CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57E4529-40E2-421D-9E28-71A6CE6B05CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +3473,7 @@
         <xdr:cNvPr id="3" name="吹き出し: 角を丸めた四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE114E36-F639-4212-B7D5-A0E2B0F5D547}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE114E36-F639-4212-B7D5-A0E2B0F5D547}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +3555,7 @@
         <xdr:cNvPr id="9" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9AB697-5FC1-4F00-B925-7FC0A4396C9B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9AB697-5FC1-4F00-B925-7FC0A4396C9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +3612,7 @@
         <xdr:cNvPr id="12" name="吹き出し: 角を丸めた四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F332F895-7528-4FD2-BFC2-566197B3F40A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F332F895-7528-4FD2-BFC2-566197B3F40A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3035,8 +3689,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>237837</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2513</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3045,7 +3699,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCE07E0-12DD-44AB-A47B-67A670A19750}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCE07E0-12DD-44AB-A47B-67A670A19750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3053,8 +3707,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="952500"/>
-          <a:ext cx="4524087" cy="0"/>
+          <a:off x="235324" y="941294"/>
+          <a:ext cx="4473660" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3101,7 +3755,7 @@
         <xdr:cNvPr id="4" name="直線コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8812117B-DEEC-4C4F-AA74-EE1B31DA27A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8812117B-DEEC-4C4F-AA74-EE1B31DA27A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3806,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966F7B27-9F1D-481B-A972-6FE08AE7099B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966F7B27-9F1D-481B-A972-6FE08AE7099B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3818,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3202,7 +3856,7 @@
         <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3C404B-8E56-443A-B4AA-66CE11022FF1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3C404B-8E56-443A-B4AA-66CE11022FF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3214,7 +3868,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3236,23 +3890,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>100854</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+        <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B16414B-BE4E-4E8C-84C1-848F833AB166}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F718085F-F449-4256-8ADD-97785976764F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,15 +3914,20 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="773207" y="10533529"/>
-          <a:ext cx="3328147" cy="694764"/>
+          <a:off x="4661646" y="10354235"/>
+          <a:ext cx="3955677" cy="571501"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -48013"/>
+            <a:gd name="adj2" fmla="val 74745"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="26000"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -3299,13 +3958,101 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ルート表示　デザインと仕組み考える</a:t>
+            <a:t>承認者の場合は「承認する」と「差し戻す」を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 角を丸めた四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F718085F-F449-4256-8ADD-97785976764F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4885764" y="8202706"/>
+          <a:ext cx="2980766" cy="705971"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -48013"/>
+            <a:gd name="adj2" fmla="val 74745"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>承認済みでコメントのある週報の場合は</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「承認コメント」を追加</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3334,7 +4081,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D623857A-E445-47BE-ACDA-198E32A3910D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D623857A-E445-47BE-ACDA-198E32A3910D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +4132,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906F4A6F-039E-4AA6-A6DE-91AEF5CBD5BE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{906F4A6F-039E-4AA6-A6DE-91AEF5CBD5BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3397,7 +4144,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3435,7 +4182,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658C2562-1EA9-4973-B615-59DE9A59B5A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658C2562-1EA9-4973-B615-59DE9A59B5A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3447,7 +4194,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3485,7 +4232,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6D6ED9-38ED-4662-AF3B-E84AE6ECF668}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6D6ED9-38ED-4662-AF3B-E84AE6ECF668}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3542,7 +4289,7 @@
         <xdr:cNvPr id="16" name="直線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B9BDAD-E838-4DA6-8047-FA70DB1D9609}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B9BDAD-E838-4DA6-8047-FA70DB1D9609}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +4346,7 @@
         <xdr:cNvPr id="17" name="直線コネクタ 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BD4EB2-671B-43C5-A818-C27A6E339C66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BD4EB2-671B-43C5-A818-C27A6E339C66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3656,7 +4403,7 @@
         <xdr:cNvPr id="26" name="直線コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE70BE2-4D32-4CE9-90CF-9F1975A738EF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE70BE2-4D32-4CE9-90CF-9F1975A738EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,7 +4460,7 @@
         <xdr:cNvPr id="30" name="直線コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CA7398-8F81-4D90-8DBD-DCBFFA76C192}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CA7398-8F81-4D90-8DBD-DCBFFA76C192}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3755,22 +4502,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>179294</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>246530</xdr:rowOff>
+      <xdr:rowOff>257736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="吹き出し: 角を丸めた四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F718085F-F449-4256-8ADD-97785976764F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F718085F-F449-4256-8ADD-97785976764F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3778,7 +4525,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4661647" y="7440706"/>
+          <a:off x="4650441" y="7451912"/>
           <a:ext cx="2185147" cy="549088"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -3852,7 +4599,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8156968D-DE93-4C27-8F15-BC629F9A3BD9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8156968D-DE93-4C27-8F15-BC629F9A3BD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,7 +4650,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D1F0EE-407B-456F-9AAA-690CBD0E50DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D1F0EE-407B-456F-9AAA-690CBD0E50DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3915,7 +4662,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3953,7 +4700,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D7B808-2944-4615-BD06-D163F40AF594}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D7B808-2944-4615-BD06-D163F40AF594}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3965,7 +4712,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4003,7 +4750,7 @@
         <xdr:cNvPr id="7" name="グループ化 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD98E46-A6DD-4F11-B247-91ABD2CAD249}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD98E46-A6DD-4F11-B247-91ABD2CAD249}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4011,8 +4758,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1781735" y="1199031"/>
-          <a:ext cx="1411941" cy="298822"/>
+          <a:off x="1807882" y="1195296"/>
+          <a:ext cx="1434353" cy="298822"/>
           <a:chOff x="1329765" y="1202763"/>
           <a:chExt cx="2390588" cy="485589"/>
         </a:xfrm>
@@ -4022,7 +4769,7 @@
           <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C088B57-58CA-49EB-B514-2A0148F43C05}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C088B57-58CA-49EB-B514-2A0148F43C05}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4082,7 +4829,7 @@
           <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B321AB-A7C5-4F7A-A2EC-342B99FD232D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B321AB-A7C5-4F7A-A2EC-342B99FD232D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4152,7 +4899,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A468E73-67AE-4B16-A0AF-20D7AE555714}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A468E73-67AE-4B16-A0AF-20D7AE555714}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4209,7 +4956,7 @@
         <xdr:cNvPr id="17" name="グループ化 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A417F47C-27FB-4EA6-87AA-93D7945C2330}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A417F47C-27FB-4EA6-87AA-93D7945C2330}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4217,8 +4964,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5629088" y="156884"/>
-          <a:ext cx="2517588" cy="3563470"/>
+          <a:off x="5718735" y="156884"/>
+          <a:ext cx="2558677" cy="3578411"/>
           <a:chOff x="5617882" y="254001"/>
           <a:chExt cx="2517588" cy="3615764"/>
         </a:xfrm>
@@ -4228,7 +4975,7 @@
           <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B19966-2489-4CBC-B60C-FCF770916437}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B19966-2489-4CBC-B60C-FCF770916437}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4288,7 +5035,7 @@
           <xdr:cNvPr id="12" name="図 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F471071-976A-41E4-BA8C-C60B8CD0E366}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F471071-976A-41E4-BA8C-C60B8CD0E366}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4332,7 +5079,7 @@
         <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825669EA-D627-4B2B-B589-B686DD6BE326}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825669EA-D627-4B2B-B589-B686DD6BE326}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4385,7 +5132,7 @@
         <xdr:cNvPr id="23" name="グループ化 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00191C8-18E8-47C5-B388-FE23BDEF5477}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00191C8-18E8-47C5-B388-FE23BDEF5477}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4393,8 +5140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1979706" y="2587441"/>
-          <a:ext cx="896467" cy="295915"/>
+          <a:off x="2009588" y="2591176"/>
+          <a:ext cx="911408" cy="295915"/>
           <a:chOff x="1329765" y="1202765"/>
           <a:chExt cx="2410668" cy="485588"/>
         </a:xfrm>
@@ -4404,7 +5151,7 @@
           <xdr:cNvPr id="24" name="四角形: 角を丸くする 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE99060-5F73-483A-86D5-D083A0EC4375}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE99060-5F73-483A-86D5-D083A0EC4375}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4459,7 +5206,7 @@
           <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F80DF9B-7159-478D-BBCB-82FE64BD76FF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F80DF9B-7159-478D-BBCB-82FE64BD76FF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4529,7 +5276,7 @@
         <xdr:cNvPr id="32" name="直線コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3351C444-CB0B-4F6A-BFEC-3537AA4815A3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3351C444-CB0B-4F6A-BFEC-3537AA4815A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4586,7 +5333,7 @@
         <xdr:cNvPr id="33" name="直線コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A27325-36DB-4F0C-B288-AE49E8AC17E7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A27325-36DB-4F0C-B288-AE49E8AC17E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4643,7 +5390,7 @@
         <xdr:cNvPr id="35" name="グループ化 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C58FDD-4355-4166-9C9F-BF54A330B8D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C58FDD-4355-4166-9C9F-BF54A330B8D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4651,8 +5398,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1979705" y="3593353"/>
-          <a:ext cx="2412995" cy="283882"/>
+          <a:off x="2009587" y="3608294"/>
+          <a:ext cx="2450349" cy="302559"/>
           <a:chOff x="1367712" y="1202763"/>
           <a:chExt cx="4085495" cy="485589"/>
         </a:xfrm>
@@ -4662,7 +5409,7 @@
           <xdr:cNvPr id="36" name="四角形: 角を丸くする 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D483CD-FB3F-4594-A3B7-E6342DDD3C5F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D483CD-FB3F-4594-A3B7-E6342DDD3C5F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4730,7 +5477,7 @@
           <xdr:cNvPr id="37" name="四角形: 角を丸くする 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326F9920-CF09-4B40-B51A-43C1D9F74590}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326F9920-CF09-4B40-B51A-43C1D9F74590}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4800,7 +5547,7 @@
         <xdr:cNvPr id="38" name="四角形: 角を丸くする 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10608DA7-EC55-4436-9254-23E2225AE851}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10608DA7-EC55-4436-9254-23E2225AE851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4928,7 +5675,7 @@
         <xdr:cNvPr id="43" name="グループ化 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91F6D26-7DF0-4067-BBD9-6B4D13A67340}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91F6D26-7DF0-4067-BBD9-6B4D13A67340}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4936,8 +5683,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1979705" y="6066119"/>
-          <a:ext cx="2412995" cy="351116"/>
+          <a:off x="2009587" y="6170707"/>
+          <a:ext cx="2450349" cy="373528"/>
           <a:chOff x="1367712" y="1202763"/>
           <a:chExt cx="4085495" cy="485589"/>
         </a:xfrm>
@@ -4947,7 +5694,7 @@
           <xdr:cNvPr id="44" name="四角形: 角を丸くする 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96287B3C-B907-494F-BFB3-B6F3FF8C2485}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96287B3C-B907-494F-BFB3-B6F3FF8C2485}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5023,7 +5770,7 @@
           <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75BA73C-544D-4CBC-9051-6F6963949747}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75BA73C-544D-4CBC-9051-6F6963949747}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5093,7 +5840,7 @@
         <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73C5DBF-0C03-4CBF-B9BA-24D5597FDD4F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73C5DBF-0C03-4CBF-B9BA-24D5597FDD4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5170,7 +5917,7 @@
         <xdr:cNvPr id="47" name="直線コネクタ 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCB3D1B-87C9-4029-B9B9-7223171153BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCB3D1B-87C9-4029-B9B9-7223171153BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5227,7 +5974,7 @@
         <xdr:cNvPr id="49" name="直線コネクタ 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7559B4B9-70B3-451F-A818-0A71581133D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7559B4B9-70B3-451F-A818-0A71581133D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5284,7 +6031,7 @@
         <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B36BA60-F8E2-406C-A237-D509DCA3D42D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B36BA60-F8E2-406C-A237-D509DCA3D42D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5359,7 +6106,7 @@
         <xdr:cNvPr id="31" name="四角形: 角を丸くする 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C00D4BA-8F02-41A5-9D41-4E15349B929B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C00D4BA-8F02-41A5-9D41-4E15349B929B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5439,7 +6186,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEA2AB1-5153-460E-9989-CC176D8F9863}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEA2AB1-5153-460E-9989-CC176D8F9863}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5495,7 +6242,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74314B72-321C-4C37-B7FE-E1D944120A5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74314B72-321C-4C37-B7FE-E1D944120A5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5546,7 +6293,7 @@
         <xdr:cNvPr id="6" name="グループ化 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E2EF6D-B01B-4313-8D81-AC4052AAFC32}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E2EF6D-B01B-4313-8D81-AC4052AAFC32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5554,8 +6301,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3857679" y="2995246"/>
-          <a:ext cx="320825" cy="144000"/>
+          <a:off x="3908479" y="3014296"/>
+          <a:ext cx="324000" cy="144000"/>
           <a:chOff x="4278493" y="1796391"/>
           <a:chExt cx="427548" cy="201705"/>
         </a:xfrm>
@@ -5565,7 +6312,7 @@
           <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA59B82-16C4-4B99-B95B-10FC64557152}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA59B82-16C4-4B99-B95B-10FC64557152}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5613,7 +6360,7 @@
           <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BFC2B1-CE00-4D81-AC74-AF8FC318E6B6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BFC2B1-CE00-4D81-AC74-AF8FC318E6B6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5679,7 +6426,7 @@
         <xdr:cNvPr id="9" name="グループ化 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7883E3E-2969-4973-BB79-AE006CF649DC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7883E3E-2969-4973-BB79-AE006CF649DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5687,8 +6434,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3857679" y="2623771"/>
-          <a:ext cx="320825" cy="144000"/>
+          <a:off x="3908479" y="2642821"/>
+          <a:ext cx="324000" cy="144000"/>
           <a:chOff x="4278493" y="1796391"/>
           <a:chExt cx="427548" cy="201705"/>
         </a:xfrm>
@@ -5698,7 +6445,7 @@
           <xdr:cNvPr id="10" name="四角形: 角を丸くする 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0824670A-E51A-4362-A9A9-88F6DB062F30}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0824670A-E51A-4362-A9A9-88F6DB062F30}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5751,7 +6498,7 @@
           <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422FA848-CF75-4FE3-9048-6B409FAF7B21}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422FA848-CF75-4FE3-9048-6B409FAF7B21}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5817,7 +6564,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6CFA40-D606-4473-9CCD-61F95A63BEB0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6CFA40-D606-4473-9CCD-61F95A63BEB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5874,7 +6621,7 @@
         <xdr:cNvPr id="13" name="グループ化 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAA2C89-606B-4418-B51E-E2405C0BF619}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAA2C89-606B-4418-B51E-E2405C0BF619}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5882,8 +6629,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3854450" y="1939925"/>
-          <a:ext cx="320825" cy="144000"/>
+          <a:off x="3905250" y="1952625"/>
+          <a:ext cx="324000" cy="144000"/>
           <a:chOff x="4278493" y="1796391"/>
           <a:chExt cx="427548" cy="201705"/>
         </a:xfrm>
@@ -5893,7 +6640,7 @@
           <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BECA50-D1F7-472A-9D0F-A11A67FD4063}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BECA50-D1F7-472A-9D0F-A11A67FD4063}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5946,7 +6693,7 @@
           <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1425FA74-67C1-4C4F-B093-D13D4AD13540}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1425FA74-67C1-4C4F-B093-D13D4AD13540}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6017,7 +6764,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF98ABC1-31E9-490C-AF68-B43C9F620DFB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF98ABC1-31E9-490C-AF68-B43C9F620DFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6068,7 +6815,7 @@
         <xdr:cNvPr id="13" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5997C4-4729-4DB3-94FA-CA7ED979015D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5997C4-4729-4DB3-94FA-CA7ED979015D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6125,7 +6872,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CB2402-6E8C-4E4D-8B63-B6F7928EDE31}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CB2402-6E8C-4E4D-8B63-B6F7928EDE31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6162,6 +6909,80 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53783041-B8E6-4AAA-B80B-A4A8C45FE7A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="2038350"/>
+          <a:ext cx="2400300" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7651"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="10000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報枠実装の場合は縦表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6210,7 +7031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6262,7 +7083,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6456,213 +7277,149 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="2.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="1.58203125" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.375" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8327964-B571-4BE0-93C3-C9789E4AF350}">
-  <sheetPr codeName="Sheet8">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="C2:S15"/>
+  <dimension ref="C2:S17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="3.08203125" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:19" ht="18.75" customHeight="1">
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
       <c r="I2" s="8"/>
@@ -6670,9 +7427,9 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="3:19" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:19" ht="25.5">
       <c r="C3" s="38" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -6690,96 +7447,275 @@
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
     </row>
-    <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="65" t="s">
+    <row r="6" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C6" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="I6" s="65" t="s">
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="I6" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="O6" s="65" t="s">
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="O6" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-    </row>
-    <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+    </row>
+    <row r="7" spans="3:19" ht="18.75" customHeight="1">
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
     </row>
-    <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="70" t="s">
+    <row r="8" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C8" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="I8" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="I8" s="66" t="s">
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="O8" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+    </row>
+    <row r="9" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C9" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="I9" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="O9" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+    </row>
+    <row r="11" spans="3:19" ht="18.75" customHeight="1">
+      <c r="O11" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+    </row>
+    <row r="12" spans="3:19" ht="18.75" customHeight="1">
+      <c r="O12" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+    </row>
+    <row r="15" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C15" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+    </row>
+    <row r="17" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C17" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C17:S17"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C15:S15"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8">
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="C2:S15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:19" ht="18.75" customHeight="1">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="3:19" ht="25.5">
+      <c r="C3" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+    </row>
+    <row r="6" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C6" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="I6" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="O6" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+    </row>
+    <row r="7" spans="3:19" ht="18.75" customHeight="1">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C8" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="O8" s="66" t="s">
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="I8" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="O8" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-    </row>
-    <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="62" t="s">
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+    </row>
+    <row r="9" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C9" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="I9" s="62" t="s">
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="I9" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="O9" s="64" t="s">
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="O9" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-    </row>
-    <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O11" s="67" t="s">
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+    </row>
+    <row r="11" spans="3:19" ht="18.75" customHeight="1">
+      <c r="O11" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-    </row>
-    <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O12" s="68" t="s">
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+    </row>
+    <row r="12" spans="3:19" ht="18.75" customHeight="1">
+      <c r="O12" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-    </row>
-    <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="57" t="s">
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+    </row>
+    <row r="15" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C15" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6803,24 +7739,105 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="C2:S15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:19" ht="18.75" customHeight="1">
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="3:19" ht="25.5">
+      <c r="C3" s="38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C13" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+    </row>
+    <row r="15" spans="3:19" ht="18.75" customHeight="1">
+      <c r="C15" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C15:S15"/>
+    <mergeCell ref="C13:S13"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244B2876-583F-473D-AA46-538CC657C8FD}">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="2.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="1.58203125" customWidth="1"/>
-    <col min="14" max="14" width="1.58203125" customWidth="1"/>
+    <col min="13" max="13" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="33.950000000000003" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -6836,148 +7853,147 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -6991,20 +8007,207 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F39F733-21DC-49BD-B5AB-CA43CC1CACAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="1.625" customWidth="1"/>
+    <col min="14" max="14" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="33.950000000000003" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:T17"/>
+  <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="3.08203125" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:20" ht="18.75" customHeight="1">
       <c r="G2" s="43"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
@@ -7012,7 +8215,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
     </row>
-    <row r="3" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:20" ht="18.75" customHeight="1">
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -7030,172 +8233,173 @@
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
     </row>
-    <row r="4" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:20" ht="18.75" customHeight="1">
       <c r="C4" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="12"/>
+      <c r="L4" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="N4" s="44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="15" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
       <c r="S5" s="14"/>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="47" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-    </row>
-    <row r="7" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+    </row>
+    <row r="7" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="48" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
       <c r="S7" s="42"/>
       <c r="T7" s="42"/>
     </row>
-    <row r="8" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-    </row>
-    <row r="9" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+    </row>
+    <row r="9" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="D9" s="15"/>
-      <c r="E9" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
     </row>
-    <row r="10" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="18"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-    </row>
-    <row r="11" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+    </row>
+    <row r="11" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="13"/>
       <c r="C11" s="15"/>
       <c r="D11" s="42"/>
@@ -7216,28 +8420,28 @@
       <c r="S11" s="42"/>
       <c r="T11" s="42"/>
     </row>
-    <row r="12" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="18"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-    </row>
-    <row r="13" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+    </row>
+    <row r="13" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="15"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
@@ -7257,28 +8461,28 @@
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
     </row>
-    <row r="14" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="18"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-    </row>
-    <row r="15" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+    </row>
+    <row r="15" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="13"/>
       <c r="C15" s="15"/>
       <c r="D15" s="42"/>
@@ -7299,34 +8503,34 @@
       <c r="S15" s="42"/>
       <c r="T15" s="42"/>
     </row>
-    <row r="16" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-    </row>
-    <row r="17" spans="4:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" spans="4:20" ht="18.75" customHeight="1">
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
@@ -7339,6 +8543,23 @@
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
     </row>
+    <row r="18" spans="4:20" ht="18.75" customHeight="1">
+      <c r="G18" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="49" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7347,23 +8568,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:T30"/>
+  <dimension ref="B2:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="3.08203125" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:20" ht="18.75" customHeight="1">
       <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
@@ -7375,7 +8594,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:20">
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -7411,382 +8630,409 @@
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
     </row>
-    <row r="5" spans="2:20" ht="124.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:20" ht="124.5" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:20" ht="63" customHeight="1">
       <c r="B6" s="18"/>
       <c r="C6" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:20" ht="63" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
       <c r="T7" s="13"/>
     </row>
-    <row r="8" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:20" ht="63" customHeight="1">
       <c r="B8" s="18"/>
       <c r="C8" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:20" ht="63" customHeight="1">
       <c r="C9" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
       <c r="T9" s="13"/>
     </row>
-    <row r="10" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:20" ht="63" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" spans="2:20" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:20" ht="63" customHeight="1">
       <c r="B11" s="10"/>
       <c r="C11" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:20">
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:20">
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+    </row>
+    <row r="17" spans="2:20">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
       <c r="T17" s="25"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:20">
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+    </row>
+    <row r="20" spans="2:20">
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
       <c r="T20" s="25"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:20">
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="57" t="s">
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="C24" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="C26" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="C28" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F15:S17"/>
-    <mergeCell ref="F18:S20"/>
-    <mergeCell ref="F21:S23"/>
-    <mergeCell ref="C30:S30"/>
+  <mergeCells count="12">
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="G11:S11"/>
     <mergeCell ref="G5:S5"/>
     <mergeCell ref="G6:S6"/>
     <mergeCell ref="G7:S7"/>
     <mergeCell ref="G8:S8"/>
     <mergeCell ref="G9:S9"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="G11:S11"/>
+    <mergeCell ref="C28:S28"/>
+    <mergeCell ref="F15:S17"/>
+    <mergeCell ref="F18:S20"/>
+    <mergeCell ref="F21:S23"/>
+    <mergeCell ref="C26:S26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7795,21 +9041,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52B8D78-7FFB-468F-82CD-E01C0D6C9356}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="3.08203125" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:20" ht="18.600000000000001" customHeight="1">
       <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
@@ -7821,7 +9069,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:20">
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -7846,8 +9094,8 @@
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
     </row>
-    <row r="5" spans="2:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:20" ht="18.600000000000001" customHeight="1"/>
+    <row r="6" spans="2:20" ht="30" customHeight="1">
       <c r="B6" s="33" t="s">
         <v>47</v>
       </c>
@@ -7870,8 +9118,8 @@
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
     </row>
-    <row r="7" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="8" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="7" spans="2:20" ht="9" customHeight="1"/>
+    <row r="8" spans="2:20" ht="27" customHeight="1">
       <c r="D8" s="27" t="s">
         <v>36</v>
       </c>
@@ -7882,8 +9130,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="9" spans="2:20" ht="9" customHeight="1"/>
+    <row r="10" spans="2:20" ht="27" customHeight="1">
       <c r="D10" s="27" t="s">
         <v>37</v>
       </c>
@@ -7894,8 +9142,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="11" spans="2:20" ht="9" customHeight="1"/>
+    <row r="12" spans="2:20" ht="27" customHeight="1">
       <c r="D12" s="27" t="s">
         <v>40</v>
       </c>
@@ -7914,8 +9162,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="13" spans="2:20" ht="9" customHeight="1"/>
+    <row r="14" spans="2:20" ht="27" customHeight="1">
       <c r="D14" s="34" t="s">
         <v>15</v>
       </c>
@@ -7931,7 +9179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="22.5" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:20" ht="24">
       <c r="D16" s="27" t="s">
         <v>7</v>
       </c>
@@ -7939,10 +9187,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="4:10" ht="12" customHeight="1">
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="4:10" ht="22.5" x14ac:dyDescent="0.65">
+    <row r="18" spans="4:10" ht="24">
       <c r="D18" s="27" t="s">
         <v>45</v>
       </c>
@@ -7950,10 +9198,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="4:10" ht="12" customHeight="1">
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:10" ht="24">
       <c r="D20" s="26" t="s">
         <v>42</v>
       </c>
@@ -7961,27 +9209,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:10" ht="24">
       <c r="J21" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:10" ht="24">
       <c r="J22" s="31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:10" ht="24">
       <c r="J23" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:10" ht="24">
       <c r="J24" s="31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="4:10" ht="22.5" x14ac:dyDescent="0.65">
+    <row r="26" spans="4:10" ht="24">
       <c r="D26" s="27" t="s">
         <v>7</v>
       </c>
@@ -7989,10 +9237,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="4:10" ht="12" customHeight="1">
       <c r="D27" s="27"/>
     </row>
-    <row r="28" spans="4:10" ht="22.5" x14ac:dyDescent="0.65">
+    <row r="28" spans="4:10" ht="24">
       <c r="D28" s="27" t="s">
         <v>45</v>
       </c>
@@ -8000,10 +9248,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="4:10" ht="12" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="4:10" ht="12" customHeight="1">
       <c r="D29" s="27"/>
     </row>
-    <row r="30" spans="4:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:10" ht="24">
       <c r="D30" s="26" t="s">
         <v>42</v>
       </c>
@@ -8011,52 +9259,52 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="57" t="s">
+    <row r="34" spans="3:19">
+      <c r="C34" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="57" t="s">
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+    </row>
+    <row r="36" spans="3:19">
+      <c r="C36" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="C34:S34"/>
     <mergeCell ref="C36:S36"/>
-    <mergeCell ref="C34:S34"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8068,8 +9316,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E21A397-03E9-46DA-AB77-CFEF691EA132}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -8077,12 +9325,12 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="3.08203125" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:18" ht="18.600000000000001" customHeight="1">
       <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
@@ -8094,7 +9342,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:18">
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -8119,10 +9367,10 @@
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
     </row>
-    <row r="5" spans="3:18" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="3:18" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="8" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="5" spans="3:18" ht="18.600000000000001" customHeight="1"/>
+    <row r="6" spans="3:18" ht="30" customHeight="1"/>
+    <row r="7" spans="3:18" ht="9" customHeight="1"/>
+    <row r="8" spans="3:18" ht="27" customHeight="1">
       <c r="D8" s="27" t="s">
         <v>36</v>
       </c>
@@ -8133,8 +9381,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="10" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="9" spans="3:18" ht="9" customHeight="1"/>
+    <row r="10" spans="3:18" ht="27" customHeight="1">
       <c r="D10" s="27" t="s">
         <v>37</v>
       </c>
@@ -8145,8 +9393,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="3:18" ht="9" customHeight="1"/>
+    <row r="12" spans="3:18" ht="27" customHeight="1">
       <c r="D12" s="27" t="s">
         <v>40</v>
       </c>
@@ -8163,8 +9411,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:18" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="14" spans="3:18" ht="27" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="13" spans="3:18" ht="9" customHeight="1"/>
+    <row r="14" spans="3:18" ht="27" customHeight="1">
       <c r="D14" s="27" t="s">
         <v>15</v>
       </c>
@@ -8180,94 +9428,94 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="3:18" ht="22.5" x14ac:dyDescent="0.65">
+    <row r="16" spans="3:18" ht="24">
       <c r="D16" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="4:4" ht="12" customHeight="1">
       <c r="D17" s="27"/>
     </row>
-    <row r="18" spans="4:4" ht="22.5" x14ac:dyDescent="0.65">
+    <row r="18" spans="4:4" ht="24">
       <c r="D18" s="27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="4:4" ht="12" customHeight="1">
       <c r="D19" s="27"/>
     </row>
-    <row r="20" spans="4:4" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:4" ht="24">
       <c r="D20" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="4:4" ht="22.5" x14ac:dyDescent="0.65">
+    <row r="27" spans="4:4" ht="24">
       <c r="D27" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="28" spans="4:4" ht="12" customHeight="1">
       <c r="D28" s="27"/>
     </row>
-    <row r="29" spans="4:4" ht="22.5" x14ac:dyDescent="0.65">
+    <row r="29" spans="4:4" ht="24">
       <c r="D29" s="27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="30" spans="4:4" ht="12" customHeight="1">
       <c r="D30" s="27"/>
     </row>
-    <row r="31" spans="4:4" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:4" ht="24">
       <c r="D31" s="26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:19">
       <c r="C38" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="57" t="s">
+    <row r="40" spans="3:19">
+      <c r="C40" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" s="57" t="s">
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+    </row>
+    <row r="42" spans="3:19">
+      <c r="C42" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8281,8 +9529,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C5BADD-AA55-4926-9C72-5AF52341BDA1}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -8290,12 +9538,12 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="3.08203125" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:20" ht="18.75" customHeight="1">
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
       <c r="I2" s="8"/>
@@ -8303,7 +9551,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:20">
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -8321,7 +9569,7 @@
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
     </row>
-    <row r="4" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:20" ht="28.5" customHeight="1">
       <c r="C4" t="s">
         <v>62</v>
       </c>
@@ -8329,7 +9577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:20" ht="28.5" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="35" t="s">
         <v>64</v>
@@ -8354,7 +9602,7 @@
       <c r="S5" s="14"/>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:20" ht="28.5" customHeight="1">
       <c r="B6" s="18"/>
       <c r="C6" s="36" t="s">
         <v>65</v>
@@ -8379,7 +9627,7 @@
       <c r="S6" s="17"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:20" ht="28.5" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="37" t="s">
         <v>66</v>
@@ -8404,7 +9652,7 @@
       <c r="S7" s="14"/>
       <c r="T7" s="13"/>
     </row>
-    <row r="8" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:20" ht="28.5" customHeight="1">
       <c r="B8" s="18"/>
       <c r="C8" s="36" t="s">
         <v>67</v>
@@ -8429,7 +9677,7 @@
       <c r="S8" s="17"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:20" ht="28.5" customHeight="1">
       <c r="C9" s="37" t="s">
         <v>68</v>
       </c>
@@ -8453,7 +9701,7 @@
       <c r="S9" s="14"/>
       <c r="T9" s="13"/>
     </row>
-    <row r="10" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:20" ht="28.5" customHeight="1">
       <c r="B10" s="18"/>
       <c r="C10" s="36" t="s">
         <v>76</v>
@@ -8478,31 +9726,31 @@
       <c r="S10" s="17"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="2:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:20" ht="28.5" customHeight="1">
       <c r="C11" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="57" t="s">
+    <row r="13" spans="2:20">
+      <c r="C13" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8515,21 +9763,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B2E109-787C-4A1B-B797-9E21CC10A334}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="C2:U21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="3.08203125" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:21" ht="18.75" customHeight="1">
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
       <c r="I2" s="8"/>
@@ -8537,7 +9785,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="3:21" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:21" ht="25.5">
       <c r="C3" s="38" t="s">
         <v>63</v>
       </c>
@@ -8557,9 +9805,9 @@
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
     </row>
-    <row r="4" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="5" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:21" ht="18.75" customHeight="1"/>
+    <row r="5" spans="3:21" ht="8.25" customHeight="1"/>
+    <row r="6" spans="3:21" ht="28.5" customHeight="1">
       <c r="E6" s="26" t="s">
         <v>75</v>
       </c>
@@ -8567,13 +9815,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:21" ht="18.75" customHeight="1">
       <c r="I7" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:21" ht="8.25" customHeight="1"/>
+    <row r="9" spans="3:21" ht="28.5" customHeight="1">
       <c r="E9" s="39" t="s">
         <v>77</v>
       </c>
@@ -8590,13 +9838,13 @@
       </c>
       <c r="U9" s="40"/>
     </row>
-    <row r="10" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:21" ht="18.75" customHeight="1">
       <c r="I10" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:21" ht="8.25" customHeight="1"/>
+    <row r="12" spans="3:21" ht="28.5" customHeight="1">
       <c r="E12" s="39" t="s">
         <v>79</v>
       </c>
@@ -8612,7 +9860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="3:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:21" ht="28.5" customHeight="1">
       <c r="I13" s="39" t="s">
         <v>44</v>
       </c>
@@ -8625,58 +9873,58 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="3:21" ht="18.75" customHeight="1">
       <c r="I14" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="3:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="3:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="3:21" ht="8.25" customHeight="1"/>
+    <row r="16" spans="3:21" ht="18.75" customHeight="1">
       <c r="E16" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="57" t="s">
+    <row r="19" spans="3:19">
+      <c r="C19" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="57" t="s">
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8688,181 +9936,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCA5CE8-C3AB-4AEA-836A-CB4EE9317532}">
-  <sheetPr codeName="Sheet7">
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="C2:S17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="3" max="3" width="3.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="3:19" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-    </row>
-    <row r="6" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="I6" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="O6" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-    </row>
-    <row r="7" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-    </row>
-    <row r="8" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="I8" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="O8" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-    </row>
-    <row r="9" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="I9" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="O9" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-    </row>
-    <row r="11" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O11" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-    </row>
-    <row r="12" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="O12" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-    </row>
-    <row r="15" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-    </row>
-    <row r="17" spans="3:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C17:S17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C15:S15"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>